--- a/PythonExcel/my_sheet.xlsx
+++ b/PythonExcel/my_sheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbachinski\Documents\GitHub\Python\PythonExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtas\Documents\GitHub\Python\Python\PythonExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A941F09-956D-4D67-8FC4-99EE94EEA5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33870" yWindow="5295" windowWidth="21600" windowHeight="11385" xr2:uid="{A37AD0DD-4917-43CF-AF28-6C238F14555B}"/>
+    <workbookView xWindow="33870" yWindow="5295" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
+    <sheet name="przyjecia" sheetId="3" r:id="rId1"/>
+    <sheet name="odejscia" sheetId="5" r:id="rId2"/>
+    <sheet name="przeniesienia" sheetId="6" r:id="rId3"/>
+    <sheet name="wykaz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,15 +34,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>Some text</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+  <si>
+    <t>MARCIN BAK</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>ADAM NOWAK</t>
+  </si>
+  <si>
+    <t>JAN KOWALSKI</t>
+  </si>
+  <si>
+    <t>MATEUSZ RUJ</t>
+  </si>
+  <si>
+    <t>JANUSZ TRACZ</t>
+  </si>
+  <si>
+    <t>Imie Nazwisko</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Dział</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>STANISŁAW KRÓL</t>
+  </si>
+  <si>
+    <t>MIROSŁAW CUGOWSKI</t>
+  </si>
+  <si>
+    <t>JAN NOWAK</t>
+  </si>
+  <si>
+    <t>GRZEGORZ LATO</t>
+  </si>
+  <si>
+    <t>ZBYSZEK BONIEK</t>
+  </si>
+  <si>
+    <t>ROBERT LEWANDOWSKI</t>
+  </si>
+  <si>
+    <t>Działz</t>
+  </si>
+  <si>
+    <t>Działdo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,8 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -387,16 +452,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC02197F-4411-44A6-8483-1D3080A02C4E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39938</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>39939</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39940</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39941</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39942</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>39815</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>39820</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39831</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>39831</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39831</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39843</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -405,16 +640,906 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45985783-9077-4582-94A6-E2FE61C86487}">
-  <dimension ref="B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39820</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>39829</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39830</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39831</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39842</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>39815</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>39830</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39831</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>39825</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39831</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39833</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39830</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>39825</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39826</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39841</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39814</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>39814</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <f>H1+B2</f>
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <f>I1+C2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>39815</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="0">H2+B3</f>
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="1">I2+C3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>39816</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>39817</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>39818</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>39819</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>39820</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>39821</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>39822</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>39823</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>39824</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>39825</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>39826</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>39827</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>39828</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>39829</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>39830</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>39831</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>39832</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>39833</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>39834</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>39835</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>39836</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>39837</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>39838</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>39839</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>39840</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>39841</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>39842</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>39843</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
